--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3790241.302036318</v>
+        <v>3787697.08010029</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>175.6809662669687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5831330369104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>35.51384068323633</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>176.0166538343225</v>
       </c>
     </row>
     <row r="4">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>78.0236834626738</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>108.0860517974732</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>91.22469481809453</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>183.652323451407</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>60.63040113948531</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.8534790963675</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>172.6321500621333</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>317.2851200040458</v>
+        <v>110.2735063589371</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787282</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>42.1944281215312</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>94.29180769719217</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>209.4231280264228</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>134.782305670367</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.4287787830914</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>192.4575684550922</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>578.2426392372654</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207805</v>
       </c>
       <c r="U2" t="n">
-        <v>199.4030692042953</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4030692042953</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="W2" t="n">
-        <v>199.4030692042953</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="X2" t="n">
-        <v>199.4030692042953</v>
+        <v>199.4030692042957</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042957</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497.6269409211394</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V3" t="n">
-        <v>687.0467259376242</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="W3" t="n">
-        <v>687.0467259376242</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="X3" t="n">
-        <v>687.0467259376242</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="Y3" t="n">
-        <v>497.6269409211394</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>409.3926193857493</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5026718878389</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>93.81384845075388</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>93.81384845075388</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.1759045242809</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.063482639416</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340726</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>633.0454302264758</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681424</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681424</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681424</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681424</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>922.8554628910356</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8929459506239</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8929459506239</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8929459506239</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>142.9070411610164</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="X5" t="n">
-        <v>1312.994794866847</v>
+        <v>917.620818123763</v>
       </c>
       <c r="Y5" t="n">
-        <v>922.8554628910356</v>
+        <v>825.4746617418493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
         <v>33.72921106255854</v>
@@ -4647,22 +4647,22 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>442.288414802421</v>
       </c>
       <c r="L6" t="n">
-        <v>390.0587034127988</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>653.9982349082861</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>939.3321053416189</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1178.137057093077</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1500.953155702264</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.715798974062</v>
+        <v>630.1851312868596</v>
       </c>
       <c r="X6" t="n">
-        <v>1038.864298768529</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.1040000035753</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4747,22 +4747,22 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U7" t="n">
-        <v>1026.612999346954</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="V7" t="n">
-        <v>771.9285111410666</v>
+        <v>718.3148693967192</v>
       </c>
       <c r="W7" t="n">
-        <v>482.511341104106</v>
+        <v>428.8976993597586</v>
       </c>
       <c r="X7" t="n">
         <v>254.5217902060886</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.7408534662222</v>
+        <v>637.8045310672583</v>
       </c>
       <c r="C8" t="n">
-        <v>63.25083326011531</v>
+        <v>526.4171509067157</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011531</v>
+        <v>526.4171509067157</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011531</v>
+        <v>140.6288983084715</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091184</v>
+        <v>133.683397559268</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761841</v>
+        <v>121.7336115759746</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761841</v>
+        <v>121.7336115759746</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872703</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159014</v>
+        <v>376.2952505158988</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985301</v>
+        <v>685.385271498526</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556946</v>
+        <v>1060.976912556941</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415492</v>
+        <v>1447.259827415485</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975115</v>
+        <v>1798.680568975105</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631093</v>
+        <v>2064.109040631083</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208132</v>
+        <v>2215.262022208121</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380909</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380909</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.77732638092</v>
+        <v>2007.782172489923</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.77732638092</v>
+        <v>1754.178276574264</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.71443903735</v>
+        <v>1754.178276574264</v>
       </c>
       <c r="W8" t="n">
-        <v>1533.945783767236</v>
+        <v>1401.40962130415</v>
       </c>
       <c r="X8" t="n">
-        <v>1160.480025506156</v>
+        <v>1027.94386304307</v>
       </c>
       <c r="Y8" t="n">
-        <v>770.340693530344</v>
+        <v>637.8045310672583</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>811.3798831139443</v>
+        <v>599.8413699559301</v>
       </c>
       <c r="C9" t="n">
-        <v>636.9268538328173</v>
+        <v>425.3883406748031</v>
       </c>
       <c r="D9" t="n">
-        <v>487.992444171566</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="E9" t="n">
-        <v>328.7549891661105</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="F9" t="n">
-        <v>182.2204311929955</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5997967268024</v>
+        <v>139.5997967268022</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412459</v>
+        <v>92.56405995424049</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9450376513136</v>
+        <v>253.1149126643075</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1480134809906</v>
+        <v>802.0148009435824</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473549</v>
+        <v>1127.350174593687</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314304</v>
+        <v>1591.467798350892</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729456</v>
+        <v>1887.924476766043</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996785</v>
+        <v>2106.524031033372</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.77732638092</v>
+        <v>2202.732847559016</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380909</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472987</v>
+        <v>2079.218696472975</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064443</v>
+        <v>1884.596484064432</v>
       </c>
       <c r="U9" t="n">
-        <v>1884.596484064443</v>
+        <v>1673.057970906429</v>
       </c>
       <c r="V9" t="n">
-        <v>1649.444375832701</v>
+        <v>1437.905862674686</v>
       </c>
       <c r="W9" t="n">
-        <v>1395.207019104499</v>
+        <v>1183.668505946485</v>
       </c>
       <c r="X9" t="n">
-        <v>1187.355518898966</v>
+        <v>975.817005740952</v>
       </c>
       <c r="Y9" t="n">
-        <v>979.5952201340124</v>
+        <v>768.0567069759982</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.615929041335</v>
+        <v>381.4062325915789</v>
       </c>
       <c r="C10" t="n">
-        <v>330.615929041335</v>
+        <v>212.470049663672</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4992896289993</v>
+        <v>212.470049663672</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761841</v>
+        <v>212.470049663672</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761841</v>
+        <v>212.470049663672</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761818</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692052</v>
+        <v>60.95254262692002</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274035</v>
+        <v>218.0633423274026</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918444</v>
+        <v>474.6375091918428</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921722</v>
+        <v>755.5481168921699</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629317</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546132</v>
+        <v>1277.514248546128</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659242</v>
+        <v>1461.323360659238</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.14818215597</v>
+        <v>1396.807701620019</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.14818215597</v>
+        <v>1342.839238202755</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.14818215597</v>
+        <v>1119.313684044434</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.14818215597</v>
+        <v>830.1883626331264</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.463693950083</v>
+        <v>830.1883626331264</v>
       </c>
       <c r="W10" t="n">
-        <v>961.0465239131222</v>
+        <v>830.1883626331264</v>
       </c>
       <c r="X10" t="n">
-        <v>733.0569730151049</v>
+        <v>602.1988117351091</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.2643938715747</v>
+        <v>381.4062325915789</v>
       </c>
     </row>
     <row r="11">
@@ -5033,49 +5033,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,49 +5264,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474266</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474266</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,16 +7725,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471065</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>145.8220995101055</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>8.985656744431139</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>63.37360602116041</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>289.5928408581808</v>
       </c>
       <c r="M9" t="n">
-        <v>85.553229638841</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>116.932268602476</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688297</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>80.44045370237417</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296919</v>
+        <v>138712.7919296892</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745735</v>
+        <v>589678.7921745764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.413517661587885e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153564</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484328</v>
+        <v>33617.87336484262</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167271</v>
+        <v>154073.8510167278</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296185</v>
+        <v>170385.5244296192</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685512</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969321</v>
+        <v>86168.04029969298</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125996.1539779897</v>
+        <v>-125996.1539779893</v>
       </c>
       <c r="C6" t="n">
-        <v>256526.622245094</v>
+        <v>256526.6222450937</v>
       </c>
       <c r="D6" t="n">
-        <v>405249.3689586724</v>
+        <v>405249.3689586746</v>
       </c>
       <c r="E6" t="n">
-        <v>81949.86062242005</v>
+        <v>81915.12269698155</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="G6" t="n">
-        <v>671628.652796994</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="H6" t="n">
-        <v>671628.6527969935</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="I6" t="n">
-        <v>671628.652796994</v>
+        <v>671593.9148715577</v>
       </c>
       <c r="J6" t="n">
-        <v>622563.7080684489</v>
+        <v>622528.9701430134</v>
       </c>
       <c r="K6" t="n">
-        <v>611381.4932054582</v>
+        <v>611346.7552800223</v>
       </c>
       <c r="L6" t="n">
-        <v>638010.7794321504</v>
+        <v>637976.0415067154</v>
       </c>
       <c r="M6" t="n">
-        <v>517554.8017802666</v>
+        <v>517520.0638548298</v>
       </c>
       <c r="N6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="O6" t="n">
-        <v>671628.6527969934</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969938</v>
+        <v>671593.9148715576</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790463</v>
+        <v>863.7717861790442</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952301</v>
+        <v>554.4443315952273</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814363</v>
+        <v>113.7908296814342</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626274</v>
+        <v>504.2037141626298</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132455</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044183</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313248</v>
+        <v>132.8291933132455</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044185</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132455</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044183</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.4168669630893</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6548056191432</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>197.2867464661889</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>29.66604194298182</v>
       </c>
     </row>
     <row r="4">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>47.68353630819286</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553084</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378008</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>86.96510614773337</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>304.2016868975709</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>295.0132438379591</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>49.1482636980183</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>22.39178164145147</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.07750532690386</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>47.98777176696177</v>
+        <v>254.9993854120705</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787248</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>129.8916290734615</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.29116482235092</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155173</v>
+        <v>25.42862793155189</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>16.39602219801725</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>11.65165697620213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>143.4427288587132</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674556</v>
+        <v>3.472449391674547</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248705</v>
+        <v>35.56222233248696</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.8716051725331</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566386</v>
+        <v>294.7198015566378</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062226</v>
+        <v>441.7085843062215</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766828</v>
+        <v>547.9785573766815</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458753</v>
+        <v>609.7317292458737</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799707</v>
+        <v>619.5978260799691</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415067</v>
+        <v>585.0686574415053</v>
       </c>
       <c r="P8" t="n">
-        <v>499.342563084541</v>
+        <v>499.3425630845398</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451959</v>
+        <v>374.985469245195</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099777</v>
+        <v>218.1262490997764</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278401</v>
+        <v>79.12844051278381</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.20064721205534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339644</v>
+        <v>0.2777959513339637</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328515</v>
+        <v>1.85792421932851</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.9436365393043</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986335</v>
+        <v>63.96800491986318</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.533094774366</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693769</v>
+        <v>300.0140174693761</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169217</v>
+        <v>403.4058705169206</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675802</v>
+        <v>470.755623467579</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436912</v>
+        <v>483.21512404369</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627804</v>
+        <v>442.0474347627793</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873899</v>
+        <v>354.7820379873889</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391978</v>
+        <v>237.1623968391972</v>
       </c>
       <c r="R9" t="n">
-        <v>115.354277407081</v>
+        <v>115.3542774070807</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498357</v>
+        <v>34.51012749498349</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363616</v>
+        <v>7.488738410363597</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347708</v>
+        <v>0.1222318565347704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765489</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869321</v>
+        <v>46.84191915869309</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412204</v>
+        <v>110.1238226412201</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011182</v>
+        <v>180.9672693011177</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552807</v>
+        <v>231.5757998552801</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243491</v>
+        <v>244.1642116243484</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057688</v>
+        <v>238.3585324057682</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231445</v>
+        <v>220.162684123144</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463283</v>
+        <v>188.3872105463278</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130357</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658298</v>
+        <v>70.03631564658281</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516772</v>
+        <v>27.14509039516765</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65529081154347</v>
+        <v>6.655290811543453</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629973</v>
+        <v>0.08496115929629952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068213</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>169.4872848053137</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>220.6936095250682</v>
       </c>
       <c r="M6" t="n">
         <v>266.605587369179</v>
@@ -35030,10 +35030,10 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>237.4432635501599</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299523</v>
+        <v>113.6738970299515</v>
       </c>
       <c r="K8" t="n">
-        <v>221.618733261242</v>
+        <v>221.6187332612409</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066956</v>
+        <v>312.2121424066942</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186026</v>
+        <v>379.385496018601</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833798</v>
+        <v>390.1847624833782</v>
       </c>
       <c r="O8" t="n">
-        <v>354.97044601982</v>
+        <v>354.9704460198185</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292715</v>
+        <v>268.1095673292702</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707464</v>
+        <v>152.6797793707455</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644875</v>
+        <v>2.540711285644306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481086</v>
+        <v>48.6954681076993</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950179</v>
+        <v>162.1725784950171</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370475</v>
+        <v>554.4443315952273</v>
       </c>
       <c r="M9" t="n">
-        <v>414.1748191844028</v>
+        <v>328.6215895455607</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603579</v>
+        <v>468.8056805628328</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318336</v>
+        <v>299.4511903183349</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730596</v>
+        <v>220.8076305730587</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890254</v>
+        <v>97.1806227531757</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443757</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454758</v>
+        <v>16.76464252454731</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752349</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155969</v>
+        <v>259.1658251155962</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861896</v>
+        <v>283.7480885861891</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849974</v>
+        <v>282.4907047849968</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371842</v>
+        <v>244.7478120371836</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112218</v>
+        <v>185.6657698112213</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134159</v>
+        <v>44.26749646134128</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
